--- a/Informe_Turnos_Por_Dia.xlsx
+++ b/Informe_Turnos_Por_Dia.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,9 +415,49 @@
         <v>Invalid Date</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Tue Nov 15 2022</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Mon Oct 31 2022</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Sat Oct 29 2022</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Thu Oct 27 2022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Tue Oct 25 2022</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Wed Oct 26 2022</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Wed Nov 02 2022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Mon Oct 24 2022</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Informe_Turnos_Por_Dia.xlsx
+++ b/Informe_Turnos_Por_Dia.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,52 +412,95 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Invalid Date</v>
+        <v>Tue Nov 15 2022</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Tue Nov 15 2022</v>
+        <v>Mon Oct 31 2022</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Mon Oct 31 2022</v>
+        <v>Sat Oct 29 2022</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Sat Oct 29 2022</v>
+        <v>Thu Oct 27 2022</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Thu Oct 27 2022</v>
+        <v>Tue Nov 22 2022</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>Tue Oct 25 2022</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>Wed Oct 26 2022</v>
       </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Wed Nov 02 2022</v>
+        <v>Thu Nov 17 2022</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>Wed Nov 02 2022</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Fri Nov 18 2022</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v>Mon Oct 24 2022</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B12"/>
   </ignoredErrors>
 </worksheet>
 </file>